--- a/data/income_statement/3digits/total/474_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/474_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>474-Retail sale of information and communication equipment in specialised stores</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>474-Retail sale of information and communication equipment in specialised stores</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>11996961.02364</v>
@@ -959,34 +865,39 @@
         <v>15805268.77993</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>19541101.89165</v>
+        <v>19541189.7614</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>22274581.44158</v>
+        <v>22286259.09861</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>23953274.05102</v>
+        <v>23993743.88296</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>26534032.83727</v>
+        <v>26691158.00599</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>27979312.70329</v>
+        <v>27993204.61927</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>29788353.55253</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>32762911.24514</v>
+        <v>32841977.91006</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>37615353.6341</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>37903955.77775999</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>51015178.425</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>11560848.37729</v>
@@ -998,34 +909,39 @@
         <v>14708438.93559</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>18538269.04527</v>
+        <v>18538356.91502</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>20909407.82934</v>
+        <v>20921068.83026</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>22304397.93672</v>
+        <v>22344555.65176</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>24721080.13412</v>
+        <v>24868691.28523</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>26516880.95022</v>
+        <v>26530329.83819</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>28134761.52482</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>30478280.46444</v>
+        <v>30556871.68129</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>34475967.04164</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>34721288.55301999</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>47847937.386</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>51081.26061</v>
@@ -1034,7 +950,7 @@
         <v>93565.02962</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>391243.75275</v>
+        <v>391243.7527499999</v>
       </c>
       <c r="F7" s="48" t="n">
         <v>127252.91455</v>
@@ -1043,13 +959,13 @@
         <v>277709.38757</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>224711.21605</v>
+        <v>224782.82742</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>212943.28545</v>
+        <v>220548.00912</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>184035.72177</v>
+        <v>184248.42416</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>229230.5386</v>
@@ -1058,13 +974,18 @@
         <v>358045.90708</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>580007.0259000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>527127.72635</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>407546.718</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>385031.38574</v>
@@ -1076,34 +997,39 @@
         <v>705586.0915900001</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>875579.9318300001</v>
+        <v>875579.9318299999</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>1087464.22467</v>
+        <v>1087480.88078</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>1424164.89825</v>
+        <v>1424405.40378</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>1600009.4177</v>
+        <v>1601918.71164</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>1278396.0313</v>
+        <v>1278626.35692</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>1424361.48911</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>1926584.87362</v>
+        <v>1927060.32169</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>2559379.56656</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>2655539.49839</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>2759694.321</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>229933.9323</v>
@@ -1115,34 +1041,39 @@
         <v>346302.1095899999</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>479025.8523699999</v>
+        <v>479025.85237</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>620671.1965699999</v>
+        <v>620686.85226</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>871787.9209400001</v>
+        <v>871906.9547</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>860849.86185</v>
+        <v>861085.0462400001</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>822040.70799</v>
+        <v>822513.76809</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>731198.3334999999</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>819393.6939600001</v>
+        <v>819414.9019000001</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>1174496.70147</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1174923.67407</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>1305198.895</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>178717.18066</v>
@@ -1157,34 +1088,39 @@
         <v>346686.48101</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>476127.32441</v>
+        <v>476142.91335</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>624691.4001</v>
+        <v>624807.05163</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>627590.8743800001</v>
+        <v>627824.22</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>719852.13771</v>
+        <v>720325.1978099999</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>637424.91663</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>669680.64092</v>
+        <v>669701.6451600001</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>989410.53952</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>990259.66596</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>1036137.29</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>42913.69465999999</v>
+        <v>42913.69466</v>
       </c>
       <c r="D11" s="48" t="n">
         <v>46585.50859</v>
@@ -1196,16 +1132,16 @@
         <v>100285.22901</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>123728.61709</v>
+        <v>123728.68384</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>159599.92986</v>
+        <v>159600.45709</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>82694.77625</v>
+        <v>82696.61502</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>51636.29586</v>
+        <v>51636.29586000001</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>50131.14868999999</v>
@@ -1214,16 +1150,21 @@
         <v>114105.66232</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>164091.15492</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>163545.00275</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>238132.677</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>8303.056980000001</v>
+        <v>8303.056979999999</v>
       </c>
       <c r="D12" s="48" t="n">
         <v>9699.15425</v>
@@ -1238,7 +1179,7 @@
         <v>20815.25507</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>87496.59098000001</v>
+        <v>87499.44597999999</v>
       </c>
       <c r="I12" s="48" t="n">
         <v>150564.21122</v>
@@ -1250,16 +1191,21 @@
         <v>43642.26818000001</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>35607.39072</v>
+        <v>35607.59442</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>20995.00703</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>21119.00536</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>30928.928</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>11767027.09134</v>
@@ -1271,34 +1217,39 @@
         <v>15458966.67034</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>19062076.03928</v>
+        <v>19062163.90903</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>21653910.24501</v>
+        <v>21665572.24635</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>23081486.13008</v>
+        <v>23121836.92826</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>25673182.97542</v>
+        <v>25830072.95975</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>27157271.9953</v>
+        <v>27170690.85118</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>29057155.21903</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>31943517.55118</v>
+        <v>32022563.00816</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>36440856.93263</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>36729032.10369001</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>49709979.53</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>10438938.52879</v>
@@ -1310,34 +1261,39 @@
         <v>13487706.90082</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>16654301.57149</v>
+        <v>16654383.24547</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>18770222.5354</v>
+        <v>18777266.76136</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>19779179.88091</v>
+        <v>19813074.93891</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>21877196.85256</v>
+        <v>22023839.81535</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>23326884.6471</v>
+        <v>23333818.42873</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>24599871.20522</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>26524809.72748</v>
+        <v>26603173.3267</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>30449503.55407</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>30624166.27723</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>42365571.481</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>52962.72468</v>
@@ -1349,10 +1305,10 @@
         <v>46360.82122</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>90676.28809</v>
+        <v>90676.28808999999</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>1279830.96286</v>
+        <v>1280005.06757</v>
       </c>
       <c r="H15" s="48" t="n">
         <v>145410.2099</v>
@@ -1361,22 +1317,27 @@
         <v>82149.77168000001</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>247321.38203</v>
+        <v>247613.68039</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>311774.43295</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>327809.17066</v>
+        <v>328244.8803</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>560428.5627799999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>564611.28435</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>1358403.826</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>10222560.67448</v>
@@ -1388,73 +1349,83 @@
         <v>13162716.7308</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>16274601.86573</v>
+        <v>16274654.74502</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>17128158.1372</v>
+        <v>17134782.59658</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>19293328.8008</v>
+        <v>19324964.47375</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>21430918.52339</v>
+        <v>21576258.17451</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>22697485.38095</v>
+        <v>22703853.44665</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>23818086.2135</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>25577103.51385</v>
+        <v>25653653.50215</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>29141249.81327</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>29299344.89967</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>40186247.158</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>158393.85506</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>229172.2516099999</v>
+        <v>229172.25161</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>273201.43416</v>
+        <v>273201.4341599999</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>270206.26257</v>
+        <v>270235.05726</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>353563.8846699999</v>
+        <v>353809.54654</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>327723.68806</v>
+        <v>329983.07311</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>348604.6932999999</v>
+        <v>349908.00497</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>364630.33428</v>
+        <v>364903.75185</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>453894.48359</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>594176.81152</v>
+        <v>595554.04613</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>710608.3633900001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>722824.43299</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>768161.039</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>5021.27457</v>
@@ -1484,16 +1455,21 @@
         <v>16116.07518</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>25720.23145</v>
+        <v>25720.89812</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>37216.81462999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>37385.66022</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>52759.458</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>1328088.56255</v>
@@ -1505,34 +1481,39 @@
         <v>1971259.76952</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>2407774.46779</v>
+        <v>2407780.66356</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>2883687.70961</v>
+        <v>2888305.48499</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>3302306.24917</v>
+        <v>3308761.98935</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>3795986.12286</v>
+        <v>3806233.1444</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>3830387.3482</v>
+        <v>3836872.42245</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>4457284.01381</v>
+        <v>4457284.013809999</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>5418707.823700001</v>
+        <v>5419389.68146</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>5991353.378559999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>6104865.826459999</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>7344408.049</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>1230950.49321</v>
@@ -1544,34 +1525,39 @@
         <v>1720095.61491</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>2170219.79851</v>
+        <v>2170247.23191</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>2591293.744</v>
+        <v>2595428.2061</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>2934407.14009</v>
+        <v>2941035.08176</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>3291491.12315</v>
+        <v>3300582.03199</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>3476969.13046</v>
+        <v>3482810.39319</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>3783855.16461</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>4408856.26451</v>
+        <v>4412738.888219999</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>5025322.61679</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>5138686.6078</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>5275032.927</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>5279.44724</v>
@@ -1589,7 +1575,7 @@
         <v>4287.036150000001</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>9090.713030000001</v>
+        <v>9090.713029999999</v>
       </c>
       <c r="I21" s="48" t="n">
         <v>6617.10998</v>
@@ -1601,19 +1587,24 @@
         <v>15112.09596</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>11722.69068</v>
+        <v>11722.80411</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>16471.64075</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>16494.8428</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>28196.507</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>680386.4701400001</v>
+        <v>680386.47014</v>
       </c>
       <c r="D22" s="48" t="n">
         <v>837021.44708</v>
@@ -1625,70 +1616,80 @@
         <v>1315269.49187</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>1610507.80846</v>
+        <v>1613153.58371</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>1825318.96067</v>
+        <v>1828195.32829</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>1984853.5112</v>
+        <v>1986743.17095</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>2003242.00153</v>
+        <v>2007805.45705</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>2241211.42108</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>2657680.41239</v>
+        <v>2658025.4904</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>3075343.19539</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>3166694.73951</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>3258608.9</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>545284.57583</v>
+        <v>545284.5758299999</v>
       </c>
       <c r="D23" s="48" t="n">
         <v>595010.41215</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>688880.5621900001</v>
+        <v>688880.56219</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>850656.9280599999</v>
+        <v>850684.36146</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>976498.8993900002</v>
+        <v>977987.5862399999</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>1099997.46639</v>
+        <v>1103749.04044</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>1300020.50197</v>
+        <v>1307221.75106</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1467976.58652</v>
+        <v>1469254.39373</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>1527531.64757</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1739453.16144</v>
+        <v>1742990.59371</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1933507.78065</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1955497.02549</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1988227.52</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>97138.06934</v>
@@ -1700,34 +1701,39 @@
         <v>251164.15461</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>237554.66928</v>
+        <v>237533.43165</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>292393.96561</v>
+        <v>292877.27889</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>367899.10908</v>
+        <v>367726.90759</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>504494.9997100001</v>
+        <v>505651.1124099999</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>353418.21774</v>
+        <v>354062.02926</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>673428.8492000001</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>1009851.55919</v>
+        <v>1006650.79324</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>966030.76177</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>966179.2186600001</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>2069375.122</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>201371.29356</v>
@@ -1742,31 +1748,36 @@
         <v>239790.32566</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>262840.07174</v>
+        <v>262847.85075</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>235704.15245</v>
+        <v>235774.2937</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>360572.73235</v>
+        <v>361207.2773</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>373863.08957</v>
+        <v>373936.6469</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>424206.08227</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>692485.41106</v>
+        <v>693016.53683</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>553172.0496499999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>554868.43111</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>734456.1040000001</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>1115.05776</v>
@@ -1799,13 +1810,18 @@
         <v>215.0402</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>6749.96153</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>6749.961530000001</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>2845.399</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>160.35486</v>
@@ -1814,7 +1830,7 @@
         <v>599.1501900000001</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>96026.73685999999</v>
+        <v>96026.73686</v>
       </c>
       <c r="F27" s="48" t="n">
         <v>542.8496600000001</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>83.34744000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>9.065</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>15933.18511</v>
@@ -1859,31 +1880,36 @@
         <v>22917.90254</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>24139.05333999999</v>
+        <v>24146.83235</v>
       </c>
       <c r="H28" s="48" t="n">
         <v>27783.63982</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>29585.20134</v>
+        <v>29611.53922</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>54815.9501</v>
+        <v>54842.69299999999</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>80344.98435</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>99237.51725999999</v>
+        <v>99293.84241</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>114582.56852</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>115303.83247</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>100963.553</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>13382.81181</v>
@@ -1898,31 +1924,36 @@
         <v>5280.61025</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>7780.461520000001</v>
+        <v>7780.46152</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>6925.223980000001</v>
+        <v>6925.22398</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>9217.202949999999</v>
+        <v>9422.04651</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>3570.19752</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>7199.26242</v>
+        <v>7199.262419999999</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>2871.84393</v>
+        <v>2873.28768</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>3783.37066</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>3870.68239</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>4452.557</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>3497.56697</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>6468.44604</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>7162.974</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>709.48835</v>
@@ -1982,13 +2018,13 @@
         <v>2368.17525</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>4581.13071</v>
+        <v>4584.05101</v>
       </c>
       <c r="J31" s="48" t="n">
         <v>4052.38001</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>812.2567299999999</v>
+        <v>812.2567300000001</v>
       </c>
       <c r="L31" s="48" t="n">
         <v>2577.83272</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>4293.553910000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>3552.024</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>109273.18935</v>
@@ -2018,28 +2059,33 @@
         <v>102947.92294</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>95910.32647</v>
+        <v>95910.67280000001</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>152908.70871</v>
+        <v>153173.64166</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>126546.25628</v>
+        <v>126571.88472</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>171524.3318</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>397855.96325</v>
+        <v>397922.47509</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>258128.27927</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>258561.03108</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>420038.321</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>239.82432</v>
@@ -2054,7 +2100,7 @@
         <v>80.67516000000001</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>45.03695999999999</v>
+        <v>45.03696000000001</v>
       </c>
       <c r="H33" s="48" t="n">
         <v>36.38507</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>11.97671</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>52.431</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>51.10413</v>
@@ -2113,14 +2164,19 @@
       <c r="M34" s="48" t="n">
         <v>377.40443</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>1456.363</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>57008.7109</v>
+        <v>57008.71090000001</v>
       </c>
       <c r="D35" s="48" t="n">
         <v>75601.7887</v>
@@ -2135,28 +2191,33 @@
         <v>112848.66447</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>98401.72581</v>
+        <v>98471.52072999999</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>152284.34428</v>
+        <v>152419.85454</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>157859.57423</v>
+        <v>157880.76022</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>155651.06139</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>178933.05597</v>
+        <v>179339.901</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>158693.14114</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>159148.19511</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>193923.417</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>130614.02159</v>
@@ -2168,34 +2229,39 @@
         <v>196286.41281</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>97979.16275</v>
+        <v>97979.16275000002</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>181658.73067</v>
+        <v>181658.80521</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>154918.89384</v>
+        <v>154921.86199</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>289183.671</v>
+        <v>289744.47599</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>289769.33953</v>
+        <v>289794.93437</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>309784.51482</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>919270.8766599998</v>
+        <v>919514.4795499999</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>431775.21938</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>432123.5354</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>634797.55</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>9272.361939999999</v>
@@ -2213,28 +2279,33 @@
         <v>17216.30173</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>6105.705019999999</v>
+        <v>6108.3019</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>5900.937059999999</v>
+        <v>5920.593559999999</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>5794.92928</v>
+        <v>5796.44898</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>11244.34262</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>18902.07872</v>
+        <v>18904.39694</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>29151.89801</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>29177.39565</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>43384.302</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>5058.64986</v>
@@ -2249,34 +2320,39 @@
         <v>3093.7172</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>4747.716780000001</v>
+        <v>4747.71678</v>
       </c>
       <c r="H38" s="48" t="n">
         <v>4141.11087</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>9332.06047</v>
+        <v>9332.060469999999</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>11636.76846</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>8732.13415</v>
+        <v>8732.134149999998</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>261817.15391</v>
+        <v>261832.66997</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>11349.68154</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>11359.15046</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>8175.931</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>589.40595</v>
+        <v>589.4059500000001</v>
       </c>
       <c r="D39" s="48" t="n">
         <v>72.65570999999998</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>1153.6585</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>124.825</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>106221.29358</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>87586.49402</v>
+        <v>87586.49402000001</v>
       </c>
       <c r="E40" s="48" t="n">
         <v>166225.55812</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>69628.75689000002</v>
+        <v>69628.75689</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>127296.25527</v>
+        <v>127296.32981</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>104042.21511</v>
+        <v>104042.58636</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>231965.23366</v>
+        <v>232460.76537</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>176174.55901</v>
+        <v>176187.40226</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>187403.91679</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>505268.03061</v>
+        <v>505479.42454</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>312156.61169</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>312217.81903</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>511530.004</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>559.03214</v>
@@ -2372,7 +2458,7 @@
         <v>28.80791</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>60.51938</v>
+        <v>60.51938000000001</v>
       </c>
       <c r="J41" s="48" t="n">
         <v>1513.24726</v>
@@ -2381,16 +2467,21 @@
         <v>1836.31216</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>84.53451</v>
+        <v>84.53451000000001</v>
       </c>
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>9.631</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>62.94797999999999</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>51.35706</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>8850.33014</v>
@@ -2447,28 +2543,33 @@
         <v>32010.10065</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>40394.69229</v>
+        <v>40394.69231000001</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>41683.81085</v>
+        <v>41729.42763000001</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>94269.5055</v>
+        <v>94280.73739000001</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>98206.30915999999</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>133096.22195</v>
+        <v>133110.59663</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>77912.01258000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>78164.15469999998</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>71572.857</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>184370.74764</v>
@@ -2480,34 +2581,39 @@
         <v>175106.81467</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>192299.27158</v>
+        <v>192299.30972</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>229410.21344</v>
+        <v>229505.83</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>282502.68601</v>
+        <v>282640.56998</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>362244.50536</v>
+        <v>362518.4930599999</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>391929.51743</v>
+        <v>391972.07438</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>424081.99663</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>622301.1944500001</v>
+        <v>622572.0031</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>531755.03895</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>532419.8520800001</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>652891.326</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>177751.60462</v>
@@ -2519,34 +2625,39 @@
         <v>171306.5657</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>191201.12131</v>
+        <v>191201.15945</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>227870.69179</v>
+        <v>227966.30835</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>279481.94755</v>
+        <v>279614.75262</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>357188.41374</v>
+        <v>357462.40144</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>384475.6828</v>
+        <v>384518.23975</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>407093.39273</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>581296.02347</v>
+        <v>581566.83212</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>508537.13543</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>509201.9485599999</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>630325.807</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>6619.14302</v>
@@ -2555,7 +2666,7 @@
         <v>4847.631640000001</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>3800.248970000001</v>
+        <v>3800.24897</v>
       </c>
       <c r="F46" s="48" t="n">
         <v>1098.15027</v>
@@ -2564,13 +2675,13 @@
         <v>1539.52165</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>3020.73846</v>
+        <v>3025.81736</v>
       </c>
       <c r="I46" s="48" t="n">
         <v>5056.09162</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>7453.834630000001</v>
+        <v>7453.83463</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>16988.6039</v>
@@ -2581,14 +2692,19 @@
       <c r="M46" s="48" t="n">
         <v>23217.90352</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>22565.519</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>-16475.40633000001</v>
+        <v>-16475.40633</v>
       </c>
       <c r="D47" s="47" t="n">
         <v>51209.07606</v>
@@ -2597,34 +2713,39 @@
         <v>248029.9144</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>187066.56061</v>
+        <v>187045.28484</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>144165.09324</v>
+        <v>144560.49443</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>166181.68168</v>
+        <v>165938.76932</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>213639.5557</v>
+        <v>214595.42066</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>45582.45035000001</v>
+        <v>46231.66740999998</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>363768.42002</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>160764.89914</v>
+        <v>157580.84742</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>555672.5530899999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>556504.26229</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>1516142.35</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>15625.92225</v>
@@ -2636,40 +2757,45 @@
         <v>28463.68944</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>28040.77382000001</v>
+        <v>28040.77382</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>31034.84027</v>
+        <v>31037.57702</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>54091.95954</v>
+        <v>54097.00604</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>57291.67464</v>
+        <v>57382.78619</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>104502.69901</v>
+        <v>104682.02273</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>81007.13256</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>96050.97145</v>
+        <v>96178.45403000002</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>100101.38403</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>100868.63273</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>98578.122</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>536.3406799999999</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>339.4652400000001</v>
+        <v>339.46524</v>
       </c>
       <c r="E49" s="48" t="n">
         <v>729.99881</v>
@@ -2684,7 +2810,7 @@
         <v>1081.62057</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>3022.60914</v>
+        <v>3022.65335</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>2330.80417</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>10949.03853</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>1387.875</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>15089.58157</v>
@@ -2717,31 +2848,36 @@
         <v>25289.38523</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>29451.37278</v>
+        <v>29454.10953</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>53010.33897</v>
+        <v>53015.38547</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>54269.0655</v>
+        <v>54360.13284</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>102171.89484</v>
+        <v>102351.21856</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>75269.63615000001</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>91127.61328999999</v>
+        <v>91255.09587</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>89152.3455</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>89919.59420000001</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>97190.247</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>32476.82844</v>
@@ -2753,34 +2889,39 @@
         <v>146830.98036</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>36216.11527</v>
+        <v>36216.12804</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>50473.2654</v>
+        <v>50475.27626999999</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>99970.41851</v>
+        <v>99983.49983999999</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>64160.69952</v>
+        <v>64564.52059</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>151874.14386</v>
+        <v>152020.59587</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>73144.91</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>135758.47678</v>
+        <v>136281.13261</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>103878.40143</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>104927.60695</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>92845.62699999999</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>88.47322</v>
@@ -2810,19 +2951,24 @@
         <v>715.20316</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>147.96697</v>
+        <v>150.27397</v>
       </c>
       <c r="M52" s="48" t="n">
         <v>32.63498</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>305.942</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>4426.549789999999</v>
+        <v>4426.54979</v>
       </c>
       <c r="D53" s="48" t="n">
         <v>707.8175</v>
@@ -2837,28 +2983,33 @@
         <v>1948.60027</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>2217.10617</v>
+        <v>2227.19098</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>2483.78945</v>
+        <v>2483.97118</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>4139.62033</v>
+        <v>4152.06512</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>6921.55811</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>5091.497060000001</v>
+        <v>5140.45415</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>9194.646630000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>9194.65777</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>4033.181</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>27961.80543</v>
@@ -2870,37 +3021,42 @@
         <v>142576.62544</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>33599.84658</v>
+        <v>33599.85935</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>48441.40855</v>
+        <v>48443.41942</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>97608.36895</v>
+        <v>97611.36547</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>61643.62992</v>
+        <v>62047.26925999999</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>147628.13388</v>
+        <v>147762.1411</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>65508.14872999999</v>
+        <v>65508.14873</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>130519.01275</v>
+        <v>130990.40449</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>94651.11981999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>95700.31419999999</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>88506.504</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-33326.31252000001</v>
+        <v>-33326.31252</v>
       </c>
       <c r="D55" s="47" t="n">
         <v>43228.57486</v>
@@ -2909,34 +3065,39 @@
         <v>129662.62348</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>178891.21916</v>
+        <v>178869.93062</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>124726.66811</v>
+        <v>125122.79518</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>120303.22271</v>
+        <v>120052.27552</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>206770.53082</v>
+        <v>207413.68626</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-1788.9945</v>
+        <v>-1106.905729999989</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>371630.64258</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>121057.39381</v>
+        <v>117478.16884</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>551895.53569</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>552445.28807</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>1521874.845</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>25710.3531</v>
@@ -2951,67 +3112,75 @@
         <v>55501.02408</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>50393.48694</v>
+        <v>50395.26926</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>55267.57648</v>
+        <v>55347.9646</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>75886.36306</v>
+        <v>76295.11935000001</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>93133.48075</v>
+        <v>93393.29679000001</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>127716.3368</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>167594.16797</v>
+        <v>167623.21587</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>176270.82745</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>177430.02897</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>304622.402</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>-59036.66562000001</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>15508.31962000001</v>
+        <v>15508.31961999999</v>
       </c>
       <c r="E57" s="47" t="n">
         <v>95617.82187999999</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>123390.19508</v>
+        <v>123368.90654</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>74333.18117</v>
+        <v>74727.52592000001</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>65035.64623</v>
+        <v>64704.31092</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>130884.16776</v>
+        <v>131118.56691</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-94922.47524999999</v>
+        <v>-94500.20251999999</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>243914.30578</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-46536.77416000001</v>
+        <v>-50145.04702999997</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>375624.70824</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>375015.2591</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>1217252.443</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>4194</v>
@@ -3041,31 +3213,34 @@
         <v>4427</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>4563</v>
+        <v>4566</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>4594</v>
+        <v>4605</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>4677</v>
+        <v>4699</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>4596</v>
+        <v>4646</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>4559</v>
+        <v>4593</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>4674</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>4389</v>
+        <v>4772</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>4316</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>4834</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>4927</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>